--- a/ig/ch-atc/StructureDefinition-DocumentAuditEvent.xlsx
+++ b/ig/ch-atc/StructureDefinition-DocumentAuditEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10577" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10577" uniqueCount="861">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0-ballot</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -2320,10 +2320,21 @@
     <t>AuditEvent.entity:Document.what.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-atc/StructureDefinition/ch-atc-uniqueid-identifier}
+</t>
+  </si>
+  <si>
     <t>XDSDocumentEntry.uniqueId</t>
   </si>
   <si>
-    <t>uniqueId</t>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>AuditEvent.entity:Document.what.display</t>
@@ -24984,16 +24995,16 @@
         <v>81</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>353</v>
+        <v>751</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>355</v>
+        <v>753</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>356</v>
@@ -25055,7 +25066,7 @@
         <v>93</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>81</v>
+        <v>754</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>105</v>
@@ -25067,7 +25078,7 @@
         <v>81</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>359</v>
+        <v>755</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>81</v>
@@ -25084,7 +25095,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>648</v>
@@ -25207,7 +25218,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>492</v>
@@ -25332,7 +25343,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>651</v>
@@ -25453,7 +25464,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>653</v>
@@ -25576,7 +25587,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>655</v>
@@ -25701,7 +25712,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>657</v>
@@ -25824,7 +25835,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>659</v>
@@ -25867,7 +25878,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>81</v>
@@ -25947,7 +25958,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>661</v>
@@ -26070,7 +26081,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>663</v>
@@ -26195,7 +26206,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>503</v>
@@ -26318,7 +26329,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>666</v>
@@ -26439,7 +26450,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>668</v>
@@ -26562,7 +26573,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>670</v>
@@ -26687,7 +26698,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>672</v>
@@ -26810,7 +26821,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>674</v>
@@ -26853,7 +26864,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>81</v>
@@ -26933,7 +26944,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>676</v>
@@ -27056,7 +27067,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>678</v>
@@ -27181,7 +27192,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>513</v>
@@ -27306,7 +27317,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>522</v>
@@ -27431,7 +27442,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>531</v>
@@ -27556,7 +27567,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>540</v>
@@ -27679,7 +27690,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>545</v>
@@ -27804,7 +27815,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>553</v>
@@ -27877,7 +27888,7 @@
         <v>81</v>
       </c>
       <c r="AB202" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="AC202" s="2"/>
       <c r="AD202" t="s" s="2">
@@ -27925,7 +27936,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>559</v>
@@ -28046,7 +28057,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>560</v>
@@ -28169,7 +28180,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>561</v>
@@ -28294,7 +28305,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>562</v>
@@ -28415,7 +28426,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>566</v>
@@ -28540,13 +28551,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>553</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>81</v>
@@ -28571,7 +28582,7 @@
         <v>287</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>555</v>
@@ -28642,7 +28653,7 @@
         <v>105</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>81</v>
@@ -28665,7 +28676,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>559</v>
@@ -28786,7 +28797,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>560</v>
@@ -28909,7 +28920,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>561</v>
@@ -29034,7 +29045,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>562</v>
@@ -29075,7 +29086,7 @@
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="S212" t="s" s="2">
         <v>81</v>
@@ -29155,7 +29166,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>566</v>
@@ -29187,10 +29198,10 @@
         <v>568</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>571</v>
@@ -29280,13 +29291,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>553</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D214" t="s" s="2">
         <v>81</v>
@@ -29311,7 +29322,7 @@
         <v>287</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>555</v>
@@ -29382,7 +29393,7 @@
         <v>105</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="AL214" t="s" s="2">
         <v>81</v>
@@ -29405,7 +29416,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>559</v>
@@ -29526,7 +29537,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>560</v>
@@ -29649,7 +29660,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>561</v>
@@ -29774,7 +29785,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>562</v>
@@ -29815,7 +29826,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>81</v>
@@ -29895,7 +29906,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>566</v>
@@ -29927,10 +29938,10 @@
         <v>568</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>571</v>
@@ -30020,13 +30031,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>553</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>81</v>
@@ -30051,7 +30062,7 @@
         <v>287</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="M220" t="s" s="2">
         <v>555</v>
@@ -30122,7 +30133,7 @@
         <v>105</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AL220" t="s" s="2">
         <v>81</v>
@@ -30145,7 +30156,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>559</v>
@@ -30266,7 +30277,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>560</v>
@@ -30389,7 +30400,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>561</v>
@@ -30514,7 +30525,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>562</v>
@@ -30555,7 +30566,7 @@
       </c>
       <c r="Q224" s="2"/>
       <c r="R224" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>81</v>
@@ -30635,7 +30646,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>566</v>
@@ -30667,10 +30678,10 @@
         <v>568</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>571</v>
@@ -30760,13 +30771,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>553</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>81</v>
@@ -30791,7 +30802,7 @@
         <v>287</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>555</v>
@@ -30862,7 +30873,7 @@
         <v>105</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>81</v>
@@ -30885,7 +30896,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>559</v>
@@ -31006,7 +31017,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>560</v>
@@ -31129,7 +31140,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>561</v>
@@ -31254,7 +31265,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>562</v>
@@ -31295,7 +31306,7 @@
       </c>
       <c r="Q230" s="2"/>
       <c r="R230" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="S230" t="s" s="2">
         <v>81</v>
@@ -31375,7 +31386,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>566</v>
@@ -31407,10 +31418,10 @@
         <v>568</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>571</v>
@@ -31500,13 +31511,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>471</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>472</v>
@@ -31531,7 +31542,7 @@
         <v>287</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>474</v>
@@ -31604,7 +31615,7 @@
         <v>478</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>81</v>
@@ -31627,7 +31638,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>483</v>
@@ -31748,7 +31759,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>484</v>
@@ -31871,7 +31882,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>485</v>
@@ -31996,7 +32007,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>486</v>
@@ -32117,7 +32128,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>581</v>
@@ -32238,7 +32249,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>583</v>
@@ -32361,7 +32372,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>585</v>
@@ -32484,7 +32495,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>587</v>
@@ -32607,7 +32618,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>589</v>
@@ -32636,7 +32647,7 @@
         <v>353</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>355</v>
@@ -32707,7 +32718,7 @@
         <v>105</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AL241" t="s" s="2">
         <v>81</v>
@@ -32730,7 +32741,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>648</v>
@@ -32853,7 +32864,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>492</v>
@@ -32978,7 +32989,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>651</v>
@@ -33099,7 +33110,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>653</v>
@@ -33222,7 +33233,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>655</v>
@@ -33347,7 +33358,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>657</v>
@@ -33470,7 +33481,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>659</v>
@@ -33513,7 +33524,7 @@
       </c>
       <c r="Q248" s="2"/>
       <c r="R248" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="S248" t="s" s="2">
         <v>81</v>
@@ -33593,7 +33604,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>661</v>
@@ -33716,7 +33727,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>663</v>
@@ -33841,7 +33852,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>503</v>
@@ -33964,7 +33975,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>666</v>
@@ -34085,7 +34096,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>668</v>
@@ -34208,7 +34219,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>670</v>
@@ -34333,7 +34344,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>672</v>
@@ -34456,7 +34467,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>674</v>
@@ -34499,7 +34510,7 @@
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="S256" t="s" s="2">
         <v>81</v>
@@ -34579,7 +34590,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>676</v>
@@ -34702,7 +34713,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>678</v>
@@ -34827,7 +34838,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>513</v>
@@ -34952,7 +34963,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>522</v>
@@ -35077,7 +35088,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>531</v>
@@ -35202,7 +35213,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>540</v>
@@ -35325,7 +35336,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>545</v>
@@ -35450,7 +35461,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>553</v>
@@ -35573,7 +35584,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>559</v>
@@ -35694,7 +35705,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>560</v>
@@ -35817,7 +35828,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>561</v>
@@ -35942,7 +35953,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>562</v>
@@ -36063,7 +36074,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>566</v>
